--- a/apptrader_chartsKL.xlsx
+++ b/apptrader_chartsKL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\Documents\NSS_Data_Analytics\projects\app-trader-rock_paper_scissors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E416361-6335-4B04-9EF2-B50D11166393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788EE699-919A-4B36-8C12-B551CE5DF06C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24735" yWindow="-2085" windowWidth="23850" windowHeight="12330" xr2:uid="{B85CD563-3E0F-4470-892F-988FFE935629}"/>
+    <workbookView xWindow="-24735" yWindow="-2085" windowWidth="23850" windowHeight="13650" xr2:uid="{B85CD563-3E0F-4470-892F-988FFE935629}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,40 +38,40 @@
     <t>Review Count</t>
   </si>
   <si>
-    <t>app 4+</t>
+    <t>App 4+</t>
   </si>
   <si>
-    <t>app 9+</t>
+    <t>App 9+</t>
   </si>
   <si>
-    <t>app 11+</t>
+    <t>App 11+</t>
   </si>
   <si>
-    <t>app 17+</t>
+    <t>App 17+</t>
   </si>
   <si>
-    <t>play E</t>
+    <t>Play E</t>
   </si>
   <si>
-    <t>play E10+</t>
+    <t>Play E10+</t>
   </si>
   <si>
-    <t>play teen</t>
+    <t>Play Mature</t>
   </si>
   <si>
-    <t>play mature</t>
+    <t>Play Teen</t>
   </si>
   <si>
-    <t>G</t>
+    <t>App 4+/Play E (G)</t>
   </si>
   <si>
-    <t>PG</t>
+    <t>App 9+/Play E10+ (PG)</t>
   </si>
   <si>
-    <t>PG-13</t>
+    <t>App 11+/Play Teen (PG-13)</t>
   </si>
   <si>
-    <t>R</t>
+    <t>App 17+/ Play Mature (R)</t>
   </si>
 </sst>
 </file>
@@ -134,10 +134,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="107"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="7"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -224,7 +224,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -236,6 +236,15 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000A-22A1-436A-927C-B29FA0CF0135}"/>
@@ -246,6 +255,15 @@
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-22A1-436A-927C-B29FA0CF0135}"/>
@@ -256,6 +274,18 @@
             <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000D-22A1-436A-927C-B29FA0CF0135}"/>
@@ -266,6 +296,18 @@
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000E-22A1-436A-927C-B29FA0CF0135}"/>
@@ -276,6 +318,18 @@
             <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-22A1-436A-927C-B29FA0CF0135}"/>
@@ -286,6 +340,18 @@
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000C-22A1-436A-927C-B29FA0CF0135}"/>
@@ -296,40 +362,130 @@
             <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000F-22A1-436A-927C-B29FA0CF0135}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-E45C-4364-9DB9-F100DCD40CE8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$4:$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>app 4+</c:v>
+                  <c:v>App 4+</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>play E</c:v>
+                  <c:v>Play E</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>app 9+</c:v>
+                  <c:v>App 9+</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>play E10+</c:v>
+                  <c:v>Play E10+</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>app 11+</c:v>
+                  <c:v>App 11+</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>play teen</c:v>
+                  <c:v>Play Teen</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>app 17+</c:v>
+                  <c:v>App 17+</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>play mature</c:v>
+                  <c:v>Play Mature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -381,7 +537,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="170"/>
         <c:axId val="1193038319"/>
         <c:axId val="1093294431"/>
       </c:barChart>
@@ -410,7 +566,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -551,14 +707,44 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="107"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="7"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Merged</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Review Count By Content Rating</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -611,7 +797,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -619,22 +805,145 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-95EB-4FAA-9534-769F5459B43A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-95EB-4FAA-9534-769F5459B43A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-95EB-4FAA-9534-769F5459B43A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$7:$E$7</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>G</c:v>
+                  <c:v>App 4+/Play E (G)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PG</c:v>
+                  <c:v>App 9+/Play E10+ (PG)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>PG-13</c:v>
+                  <c:v>App 11+/Play Teen (PG-13)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>R</c:v>
+                  <c:v>App 17+/ Play Mature (R)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -667,8 +976,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -838,79 +1148,14 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
   <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1928,16 +2173,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1964,16 +2209,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>601027</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>164782</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>117157</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>79057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>296227</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>16192</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>555307</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>111442</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1998,6 +2243,83 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>735330</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3809</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3360420" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F560096A-C09A-4FAF-802C-88E675A24881}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="735330" y="1813559"/>
+          <a:ext cx="3360420" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>These</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> don't have to be the final colors by any means. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>I just wanted to show how the similar colors help to </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>understand the groupings I did.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2301,12 +2623,19 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -2329,10 +2658,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2381,13 +2710,13 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">

--- a/apptrader_chartsKL.xlsx
+++ b/apptrader_chartsKL.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\Documents\NSS_Data_Analytics\projects\app-trader-rock_paper_scissors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788EE699-919A-4B36-8C12-B551CE5DF06C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B065FB-FD18-4BBA-B384-C4C39370541E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24735" yWindow="-2085" windowWidth="23850" windowHeight="13650" xr2:uid="{B85CD563-3E0F-4470-892F-988FFE935629}"/>
+    <workbookView xWindow="-28920" yWindow="-2505" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B85CD563-3E0F-4470-892F-988FFE935629}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="content_rating" sheetId="1" r:id="rId1"/>
+    <sheet name="money_projection" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Review Count</t>
   </si>
@@ -73,13 +74,80 @@
   <si>
     <t>App 17+/ Play Mature (R)</t>
   </si>
+  <si>
+    <t>price per app</t>
+  </si>
+  <si>
+    <t>total spent</t>
+  </si>
+  <si>
+    <t>apps purchased</t>
+  </si>
+  <si>
+    <t>$ spent on advertising</t>
+  </si>
+  <si>
+    <t>Per App</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>General Info</t>
+  </si>
+  <si>
+    <t>profit over all</t>
+  </si>
+  <si>
+    <t>profit for App Trader</t>
+  </si>
+  <si>
+    <t>$ earned from advertising</t>
+  </si>
+  <si>
+    <t>Totals for the Six 5 Star Rated Apps</t>
+  </si>
+  <si>
+    <t>profit for the life of the apps (11 yrs)</t>
+  </si>
+  <si>
+    <t>Totals for the 4.5 Rated Apps</t>
+  </si>
+  <si>
+    <t>profit for the life of the apps (9 yrs)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -104,14 +172,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -213,7 +287,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>content_rating!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -460,7 +534,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:f>content_rating!$B$4:$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -492,7 +566,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$I$5</c:f>
+              <c:f>content_rating!$B$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -786,7 +860,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
+              <c:f>content_rating!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -930,7 +1004,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$7:$E$7</c:f>
+              <c:f>content_rating!$B$7:$E$7</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -950,7 +1024,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$E$8</c:f>
+              <c:f>content_rating!$B$8:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1043,6 +1117,7 @@
         <c:axId val="1205960095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -2622,8 +2697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFBC7F8-D400-40FF-B825-69A109E288A3}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2795,4 +2870,269 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5915AE-BED1-4F1C-AAD9-810232F627F1}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5">
+        <f>(B2*B3)</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="5">
+        <f>B7*12</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C8" s="5">
+        <f>B8*12</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5">
+        <f>B8-B7</f>
+        <v>9000</v>
+      </c>
+      <c r="C9" s="5">
+        <f>B9*12</f>
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5">
+        <f>B9/2</f>
+        <v>4500</v>
+      </c>
+      <c r="C10" s="5">
+        <f>B10*12</f>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="5">
+        <f>B7*6</f>
+        <v>6000</v>
+      </c>
+      <c r="C14" s="5">
+        <f>B14*12</f>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5">
+        <f>B8*6</f>
+        <v>60000</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" ref="C15:C17" si="0">B15*12</f>
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="5">
+        <f>B9*6</f>
+        <v>54000</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>648000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="5">
+        <f>B16/2</f>
+        <v>27000</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>324000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="5">
+        <f>C17*11</f>
+        <v>3564000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5">
+        <f>B7*4</f>
+        <v>4000</v>
+      </c>
+      <c r="C22" s="5">
+        <f>B22*12</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" ref="B23:C25" si="1">B8*4</f>
+        <v>40000</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" ref="C23:C25" si="2">B23*12</f>
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" si="1"/>
+        <v>36000</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="2"/>
+        <v>432000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="2"/>
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="5">
+        <f>C25*9</f>
+        <v>1944000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="5">
+        <f>C19+C27</f>
+        <v>5508000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/apptrader_chartsKL.xlsx
+++ b/apptrader_chartsKL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\Documents\NSS_Data_Analytics\projects\app-trader-rock_paper_scissors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B065FB-FD18-4BBA-B384-C4C39370541E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D116A037-9200-4AE2-8BC4-71EB61306BDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2505" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B85CD563-3E0F-4470-892F-988FFE935629}"/>
+    <workbookView xWindow="-22290" yWindow="-2145" windowWidth="22125" windowHeight="13875" activeTab="1" xr2:uid="{B85CD563-3E0F-4470-892F-988FFE935629}"/>
   </bookViews>
   <sheets>
     <sheet name="content_rating" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
-  <si>
-    <t>Review Count</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>App 4+</t>
   </si>
@@ -114,13 +111,49 @@
     <t>profit for the life of the apps (11 yrs)</t>
   </si>
   <si>
-    <t>Totals for the 4.5 Rated Apps</t>
-  </si>
-  <si>
     <t>profit for the life of the apps (9 yrs)</t>
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>E (Everyone)</t>
+  </si>
+  <si>
+    <t>E10+</t>
+  </si>
+  <si>
+    <t>Teen</t>
+  </si>
+  <si>
+    <t>Mature</t>
+  </si>
+  <si>
+    <t>4+</t>
+  </si>
+  <si>
+    <t>9+</t>
+  </si>
+  <si>
+    <t>11+</t>
+  </si>
+  <si>
+    <t>17+</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Avg Rating</t>
+  </si>
+  <si>
+    <t>Totals for the Four 4.5 Rated Apps</t>
+  </si>
+  <si>
+    <t>Total Per year (for the first 9 years)</t>
+  </si>
+  <si>
+    <t>All Apps Purchased</t>
   </si>
 </sst>
 </file>
@@ -176,13 +209,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -291,7 +325,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Review Count</c:v>
+                  <c:v>Avg Rating</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -864,7 +898,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Review Count</c:v>
+                  <c:v>Avg Rating</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1222,6 +1256,998 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>App Store Review</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Count by Content Rating</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>content_rating!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Rating</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>content_rating!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4+</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9+</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>content_rating!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B3E1-45EF-A895-976E4A7FFBA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1225825311"/>
+        <c:axId val="1219187199"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1225825311"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Content Rating</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219187199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1219187199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Avg Review Rating</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1225825311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Play Store</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Review Count by Content Rating</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>content_rating!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Rating</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>content_rating!$L$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>E (Everyone)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E10+</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Teen</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>content_rating!$L$2:$O$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.1900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D360-439A-B98A-26B8AB302216}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1453658175"/>
+        <c:axId val="1399861455"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1453658175"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Content Rating</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1399861455"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1399861455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Avg</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Review Rating</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1453658175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
   <a:schemeClr val="accent5"/>
@@ -1234,6 +2260,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -2244,20 +3350,1030 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>767715</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>596265</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2284,16 +4400,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>117157</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>79057</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>802957</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>60007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>555307</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>111442</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>208597</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>92392</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2395,6 +4511,78 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>207645</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>126682</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FECD2CD0-1883-4591-84BB-53CB591D8266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>460057</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>73342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>482917</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101917</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00083459-3A95-4247-A609-D1CB153E88DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2695,10 +4883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFBC7F8-D400-40FF-B825-69A109E288A3}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2711,37 +4899,53 @@
     <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>3.57</v>
@@ -2767,36 +4971,51 @@
       <c r="I2">
         <v>4.12</v>
       </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="M2">
+        <v>4.26</v>
+      </c>
+      <c r="N2">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="O2">
+        <v>4.12</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <f>B2</f>
@@ -2831,23 +5050,23 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <f>AVERAGE(B5,C5)</f>
@@ -2874,10 +5093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5915AE-BED1-4F1C-AAD9-810232F627F1}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2889,12 +5108,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5">
         <v>10000</v>
@@ -2902,7 +5121,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2">
         <v>10</v>
@@ -2910,7 +5129,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5">
         <f>(B2*B3)</f>
@@ -2919,18 +5138,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5">
         <v>1000</v>
@@ -2942,7 +5161,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5">
         <v>10000</v>
@@ -2954,7 +5173,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5">
         <f>B8-B7</f>
@@ -2967,7 +5186,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5">
         <f>B9/2</f>
@@ -2978,41 +5197,58 @@
         <v>54000</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>19</v>
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B7*10</f>
+        <v>10000</v>
+      </c>
+      <c r="C13" s="5">
+        <f>B13*12</f>
+        <v>120000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5">
-        <f>B7*6</f>
-        <v>6000</v>
+        <f t="shared" ref="B14:B16" si="0">B8*10</f>
+        <v>100000</v>
       </c>
       <c r="C14" s="5">
-        <f>B14*12</f>
-        <v>72000</v>
+        <f t="shared" ref="C14:C16" si="1">B14*12</f>
+        <v>1200000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="5">
-        <f>B8*6</f>
-        <v>60000</v>
+        <f t="shared" si="0"/>
+        <v>90000</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" ref="C15:C17" si="0">B15*12</f>
-        <v>720000</v>
+        <f t="shared" si="1"/>
+        <v>1080000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3020,114 +5256,177 @@
         <v>21</v>
       </c>
       <c r="B16" s="5">
-        <f>B9*6</f>
-        <v>54000</v>
+        <f t="shared" si="0"/>
+        <v>45000</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="0"/>
-        <v>648000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="5">
-        <f>B16/2</f>
-        <v>27000</v>
-      </c>
-      <c r="C17" s="5">
-        <f t="shared" si="0"/>
-        <v>324000</v>
+        <f t="shared" si="1"/>
+        <v>540000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="5">
-        <f>C17*11</f>
-        <v>3564000</v>
+        <v>23</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5">
+        <f>B7*6</f>
+        <v>6000</v>
+      </c>
+      <c r="C20" s="5">
+        <f>B20*12</f>
+        <v>72000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>19</v>
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="5">
+        <f>B8*6</f>
+        <v>60000</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" ref="C21:C23" si="2">B21*12</f>
+        <v>720000</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B22" s="5">
-        <f>B7*4</f>
-        <v>4000</v>
+        <f>B9*6</f>
+        <v>54000</v>
       </c>
       <c r="C22" s="5">
-        <f>B22*12</f>
-        <v>48000</v>
+        <f t="shared" si="2"/>
+        <v>648000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="5">
-        <f t="shared" ref="B23:C25" si="1">B8*4</f>
-        <v>40000</v>
+        <f>B22/2</f>
+        <v>27000</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" ref="C23:C25" si="2">B23*12</f>
-        <v>480000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="5">
-        <f t="shared" si="1"/>
-        <v>36000</v>
-      </c>
-      <c r="C24" s="5">
         <f t="shared" si="2"/>
-        <v>432000</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="5">
-        <f t="shared" si="1"/>
-        <v>18000</v>
+      <c r="A25" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="2"/>
-        <v>216000</v>
+        <f>C23*11</f>
+        <v>3564000</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="5">
-        <f>C25*9</f>
-        <v>1944000</v>
+        <v>37</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B7*4</f>
+        <v>4000</v>
+      </c>
+      <c r="C28" s="5">
+        <f>B28*12</f>
+        <v>48000</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>28</v>
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="5">
+        <f>B8*4</f>
+        <v>40000</v>
       </c>
       <c r="C29" s="5">
-        <f>C19+C27</f>
+        <f t="shared" ref="C29:C31" si="3">B29*12</f>
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="5">
+        <f>B9*4</f>
+        <v>36000</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="3"/>
+        <v>432000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="5">
+        <f>B10*4</f>
+        <v>18000</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="3"/>
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="5">
+        <f>C31*9</f>
+        <v>1944000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="5">
+        <f>C23+C31</f>
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="5">
+        <f>C25+C33</f>
         <v>5508000</v>
       </c>
     </row>
